--- a/e-FORS/UploadedExcel/Template/Liquidation_Ledger_Template.xlsx
+++ b/e-FORS/UploadedExcel/Template/Liquidation_Ledger_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\e-FORS\e-FORS\UploadedExcel\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B141534-C26F-4233-8F1D-1E865406C813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F844B016-A612-432E-B6C9-63C9052126E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{22A09722-299E-4922-B9CD-F04BCC226A16}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{22A09722-299E-4922-B9CD-F04BCC226A16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>EZO.C5.F.007</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>MS.DAYANARA PALOMAR/SV</t>
-  </si>
-  <si>
-    <t>LOA NO.     LTC-SC/TT-21-573</t>
   </si>
   <si>
     <t>LOA DATE:  JULY 09,2021</t>
@@ -805,7 +802,7 @@
   <dimension ref="A3:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,18 +896,16 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
-        <v>21</v>
-      </c>
+      <c r="B8" s="46"/>
       <c r="C8" s="46"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1323,11 +1318,11 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>

--- a/e-FORS/UploadedExcel/Template/Liquidation_Ledger_Template.xlsx
+++ b/e-FORS/UploadedExcel/Template/Liquidation_Ledger_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\e-FORS\e-FORS\UploadedExcel\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F844B016-A612-432E-B6C9-63C9052126E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9834F9-D5E2-4A61-96DA-E4AE4741BCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{22A09722-299E-4922-B9CD-F04BCC226A16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{22A09722-299E-4922-B9CD-F04BCC226A16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>EZO.C5.F.007</t>
   </si>
@@ -84,20 +84,6 @@
     <t>Total returns w/ waste or rejects, as applicable</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Prepared by:  </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ISABEL OLAGUIR/ CLERK</t>
-    </r>
-  </si>
-  <si>
     <t>Certified Correct by:    _______________________</t>
   </si>
   <si>
@@ -110,16 +96,10 @@
     <t>MS.DAYANARA PALOMAR/SV</t>
   </si>
   <si>
-    <t>LOA DATE:  JULY 09,2021</t>
-  </si>
-  <si>
-    <t>LOA EXPIRY:  JULY 08,2022</t>
-  </si>
-  <si>
-    <t>-                2,367</t>
-  </si>
-  <si>
-    <t>-       82,292.97</t>
+    <t xml:space="preserve">LOA DATE:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared by:  </t>
   </si>
 </sst>
 </file>
@@ -428,7 +408,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -802,7 +782,7 @@
   <dimension ref="A3:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,13 +880,11 @@
       <c r="C8" s="46"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="3"/>
@@ -1291,38 +1269,36 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="32">
-        <v>50000</v>
-      </c>
+      <c r="D35" s="32"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="34">
-        <v>1500000</v>
-      </c>
+      <c r="F35" s="34"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="33" t="s">
-        <v>23</v>
+      <c r="D36" s="33">
+        <f>F32</f>
+        <v>0</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="35" t="s">
-        <v>24</v>
+      <c r="F36" s="35">
+        <f>G32</f>
+        <v>0</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1330,7 +1306,7 @@
         <v>3</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -1341,13 +1317,13 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="32">
-        <f>50000-2367</f>
-        <v>47633</v>
+        <f>D35-D36</f>
+        <v>0</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="34">
-        <f>1500000-82292.97</f>
-        <v>1417707.03</v>
+        <f>F35-F36</f>
+        <v>0</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
